--- a/biology/Botanique/José_Baudel/José_Baudel.xlsx
+++ b/biology/Botanique/José_Baudel/José_Baudel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Baudel</t>
+          <t>José_Baudel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Baudel né à Luzech, dans le Lot, le 31 mars 1927, et mort dans son village natal le 7 septembre 2005, est un ingénieur agronome qui consacra l’essentiel de sa vie professionnelle au Vin de Cahors.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Baudel</t>
+          <t>José_Baudel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le cadet d’une famille de 3 enfants. Son père Abel était viticulteur à Luzech. Sa sœur ainée Yvonne devient  professeur de français à Cahors puis à Toulouse. Son frère Roger, l’ainé des garçons, reprend la propriété viticole. José doit trouver un métier en dehors de la propriété malgré son attachement à son village. Il part faire des études d’ingénieur à l’École nationale supérieure agronomique de Montpellier, promotion 1947, dont il sort en 1950. Son premier emploi est contrôleur des bois et plants de vigne dans la région de Carpentras. 
 Il se marie en 1952 avec Odette Delnaud, native de Rocamadour. De leur union naîtront 4 enfants. Il part ensuite à Bordeaux où il devient chef de centre de l’Institut des Vins de Consommation Courante (IVCC).
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Baudel</t>
+          <t>José_Baudel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Ouvrages publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le vin de Cahors, José Baudel, Éditions de la Bouriane - 01/10/1995
 Pensées humanistes et devoirs de l'homme, publié par l'Association Humanisme et devoirs de l'homme
